--- a/parent/login/测试.xlsx
+++ b/parent/login/测试.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,15 +494,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -500,8 +515,11 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -511,8 +529,11 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -521,6 +542,9 @@
       </c>
       <c r="C3" t="s">
         <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
